--- a/商品价格.xlsx
+++ b/商品价格.xlsx
@@ -10,7 +10,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -376,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,9 +399,2385 @@
         <v>商品价格</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>100011995276</v>
+      </c>
+      <c r="B2" t="str">
+        <v>三岛 盖饭汁 250g</v>
+      </c>
+      <c r="C2" t="str">
+        <v>mishima</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1231783</v>
+      </c>
+      <c r="B3" t="str">
+        <v>三岛 照烧汁 235g</v>
+      </c>
+      <c r="C3" t="str">
+        <v>mishima</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1788575</v>
+      </c>
+      <c r="B4" t="str">
+        <v>保宁醋 中华老字号 酿造食醋 220ml</v>
+      </c>
+      <c r="C4" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1231779</v>
+      </c>
+      <c r="B5" t="str">
+        <v>三岛 黑椒汁 240g</v>
+      </c>
+      <c r="C5" t="str">
+        <v>mishima</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>100001410228</v>
+      </c>
+      <c r="B6" t="str">
+        <v>保宁醋 中华老字号 特级 川派酵醋 430ml</v>
+      </c>
+      <c r="C6" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1806900</v>
+      </c>
+      <c r="B7" t="str">
+        <v>保宁醋 中华老字号 糯米白醋纯粮酿造食醋 480ml</v>
+      </c>
+      <c r="C7" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1226058</v>
+      </c>
+      <c r="B8" t="str">
+        <v>甘汁园 精选黄冰糖 400g</v>
+      </c>
+      <c r="C8" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1205745</v>
+      </c>
+      <c r="B9" t="str">
+        <v>保宁醋 中华老字号 手工特制保宁醋 500ml</v>
+      </c>
+      <c r="C9" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1205746</v>
+      </c>
+      <c r="B10" t="str">
+        <v>保宁醋 中华老字号 三年陈酿食醋 480ml</v>
+      </c>
+      <c r="C10" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>4517058</v>
+      </c>
+      <c r="B11" t="str">
+        <v>保宁醋 中华老字号 特级保宁醋 440ml</v>
+      </c>
+      <c r="C11" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1205747</v>
+      </c>
+      <c r="B12" t="str">
+        <v>保宁醋 中华老字号 保宁国醋 700ml</v>
+      </c>
+      <c r="C12" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>100002671132</v>
+      </c>
+      <c r="B13" t="str">
+        <v>三岛 海苔香松 300g</v>
+      </c>
+      <c r="C13" t="str">
+        <v>mishima</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>5866512</v>
+      </c>
+      <c r="B14" t="str">
+        <v>潮盛 香港橄榄菜 220g</v>
+      </c>
+      <c r="C14" t="str">
+        <v>潮盛</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>4517050</v>
+      </c>
+      <c r="B15" t="str">
+        <v>保宁醋 中华老字号 手工特制五粮老醋酿造食醋 500ml</v>
+      </c>
+      <c r="C15" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1122772</v>
+      </c>
+      <c r="B16" t="str">
+        <v>潮盛 香港橄榄菜 450g</v>
+      </c>
+      <c r="C16" t="str">
+        <v>潮盛</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1806917</v>
+      </c>
+      <c r="B17" t="str">
+        <v>保宁醋 中华老字号 五年陈酿酿造食醋 陈醋 480ml</v>
+      </c>
+      <c r="C17" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>6519688</v>
+      </c>
+      <c r="B18" t="str">
+        <v>保宁醋 中华老字号 一级保宁醋 430ml</v>
+      </c>
+      <c r="C18" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1572632</v>
+      </c>
+      <c r="B19" t="str">
+        <v>甘汁园 木糖醇 125g</v>
+      </c>
+      <c r="C19" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>8157628</v>
+      </c>
+      <c r="B20" t="str">
+        <v>保宁醋 中华老字号 特级保宁醋 2.5L</v>
+      </c>
+      <c r="C20" t="str">
+        <v>保宁</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>4258041</v>
+      </c>
+      <c r="B21" t="str">
+        <v>甘汁园 单晶体冰糖 1000g</v>
+      </c>
+      <c r="C21" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>5866532</v>
+      </c>
+      <c r="B22" t="str">
+        <v>潮盛 香港橄榄菜 285g</v>
+      </c>
+      <c r="C22" t="str">
+        <v>潮盛</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>1806894</v>
+      </c>
+      <c r="B23" t="str">
+        <v>甘汁园 食用小苏打粉 1kg</v>
+      </c>
+      <c r="C23" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>4258023</v>
+      </c>
+      <c r="B24" t="str">
+        <v>甘汁园 女生红糖 350g</v>
+      </c>
+      <c r="C24" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>5866514</v>
+      </c>
+      <c r="B25" t="str">
+        <v>潮盛 香港橄榄菜 170g</v>
+      </c>
+      <c r="C25" t="str">
+        <v>潮盛</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>3609212</v>
+      </c>
+      <c r="B26" t="str">
+        <v>甘汁园 马铃薯淀粉 275g</v>
+      </c>
+      <c r="C26" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>3609208</v>
+      </c>
+      <c r="B27" t="str">
+        <v>甘汁园 玉米淀粉 450g</v>
+      </c>
+      <c r="C27" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1226046</v>
+      </c>
+      <c r="B28" t="str">
+        <v>甘汁园 玫瑰红糖 350g</v>
+      </c>
+      <c r="C28" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>1806879</v>
+      </c>
+      <c r="B29" t="str">
+        <v>甘汁园 食用纯碱 268g</v>
+      </c>
+      <c r="C29" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2306568</v>
+      </c>
+      <c r="B30" t="str">
+        <v>甘汁园  小麦淀粉 275g</v>
+      </c>
+      <c r="C30" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1226047</v>
+      </c>
+      <c r="B31" t="str">
+        <v>甘汁园 阿胶红糖 350g</v>
+      </c>
+      <c r="C31" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1806889</v>
+      </c>
+      <c r="B32" t="str">
+        <v>甘汁园 食用小苏打 268g</v>
+      </c>
+      <c r="C32" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>5199924</v>
+      </c>
+      <c r="B33" t="str">
+        <v>甘汁园 老又土多晶体冰糖 800g</v>
+      </c>
+      <c r="C33" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>1806892</v>
+      </c>
+      <c r="B34" t="str">
+        <v>甘汁园 玉米淀粉 275g</v>
+      </c>
+      <c r="C34" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>100005226376</v>
+      </c>
+      <c r="B35" t="str">
+        <v>甘汁园 纯正红糖 1KG</v>
+      </c>
+      <c r="C35" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1226048</v>
+      </c>
+      <c r="B36" t="str">
+        <v>甘汁园 益母红糖 350g</v>
+      </c>
+      <c r="C36" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>1745163</v>
+      </c>
+      <c r="B37" t="str">
+        <v>甘汁园 纯正红糖 350g</v>
+      </c>
+      <c r="C37" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>100001566208</v>
+      </c>
+      <c r="B38" t="str">
+        <v>甘汁园 玉米淀粉 1kg</v>
+      </c>
+      <c r="C38" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>1806897</v>
+      </c>
+      <c r="B39" t="str">
+        <v>甘汁园 食用纯碱 1kg</v>
+      </c>
+      <c r="C39" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1572676</v>
+      </c>
+      <c r="B40" t="str">
+        <v>甘汁园 女生红糖 180g</v>
+      </c>
+      <c r="C40" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>4885266</v>
+      </c>
+      <c r="B41" t="str">
+        <v>甘汁园 烘焙白砂糖 白糖 1kg</v>
+      </c>
+      <c r="C41" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>3180145</v>
+      </c>
+      <c r="B42" t="str">
+        <v>甘汁园 绵白糖 454g</v>
+      </c>
+      <c r="C42" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>1226044</v>
+      </c>
+      <c r="B43" t="str">
+        <v>甘汁园 月子红糖 368g</v>
+      </c>
+      <c r="C43" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>4885268</v>
+      </c>
+      <c r="B44" t="str">
+        <v>甘汁园  冰糖糖浆 365ml</v>
+      </c>
+      <c r="C44" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>1226070</v>
+      </c>
+      <c r="B45" t="str">
+        <v>甘汁园  双碳白砂糖 500g</v>
+      </c>
+      <c r="C45" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>100001566210</v>
+      </c>
+      <c r="B46" t="str">
+        <v>甘汁园 葡萄糖 218g</v>
+      </c>
+      <c r="C46" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>100001949232</v>
+      </c>
+      <c r="B47" t="str">
+        <v>甘汁园 红糖姜茶柠檬味 150g</v>
+      </c>
+      <c r="C47" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>3609196</v>
+      </c>
+      <c r="B48" t="str">
+        <v>甘汁园 果蔬洗盐 350g</v>
+      </c>
+      <c r="C48" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>3180159</v>
+      </c>
+      <c r="B49" t="str">
+        <v>甘汁园 白糖 白砂糖 454g</v>
+      </c>
+      <c r="C49" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>4885254</v>
+      </c>
+      <c r="B50" t="str">
+        <v>甘汁园 绵白糖 1kg</v>
+      </c>
+      <c r="C50" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1226060</v>
+      </c>
+      <c r="B51" t="str">
+        <v>甘汁园 梨汁冰糖 400g</v>
+      </c>
+      <c r="C51" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1806893</v>
+      </c>
+      <c r="B52" t="str">
+        <v>甘汁园 姜汁红糖 350g</v>
+      </c>
+      <c r="C52" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>100003206443</v>
+      </c>
+      <c r="B53" t="str">
+        <v>甘汁园 黄冰糖（罐装） 1KG</v>
+      </c>
+      <c r="C53" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1226063</v>
+      </c>
+      <c r="B54" t="str">
+        <v>甘汁园 优质老冰糖 400g</v>
+      </c>
+      <c r="C54" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>100001566224</v>
+      </c>
+      <c r="B55" t="str">
+        <v>甘汁园 面包糠（白色）168g</v>
+      </c>
+      <c r="C55" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1226050</v>
+      </c>
+      <c r="B56" t="str">
+        <v>甘汁园 双碳绵白糖 500g</v>
+      </c>
+      <c r="C56" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>100001949234</v>
+      </c>
+      <c r="B57" t="str">
+        <v>甘汁园 老土冰糖粒 多晶体冰糖 1kg</v>
+      </c>
+      <c r="C57" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1226056</v>
+      </c>
+      <c r="B58" t="str">
+        <v>甘汁园 单晶体冰糖 400g</v>
+      </c>
+      <c r="C58" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1809546</v>
+      </c>
+      <c r="B59" t="str">
+        <v>匠造咖喱 金品咖喱日式咖喱块微辣 240g</v>
+      </c>
+      <c r="C59" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>8361517</v>
+      </c>
+      <c r="B60" t="str">
+        <v>甘汁园 木薯淀粉 1kg</v>
+      </c>
+      <c r="C60" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>100001211267</v>
+      </c>
+      <c r="B61" t="str">
+        <v>甘汁园 面包糠（黄色）168g</v>
+      </c>
+      <c r="C61" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>100000221710</v>
+      </c>
+      <c r="B62" t="str">
+        <v>甘汁园 纯正黑糖 158g</v>
+      </c>
+      <c r="C62" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1572688</v>
+      </c>
+      <c r="B63" t="str">
+        <v>甘汁园 原味型姜椒红糖姜汤 240g（20g*12包）</v>
+      </c>
+      <c r="C63" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>100000086869</v>
+      </c>
+      <c r="B64" t="str">
+        <v>甘汁园 红糖姜茶原味姜汤 150g</v>
+      </c>
+      <c r="C64" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1809539</v>
+      </c>
+      <c r="B65" t="str">
+        <v>匠造咖喱 金品咖喱日式咖喱块香辣 100g</v>
+      </c>
+      <c r="C65" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>3565689</v>
+      </c>
+      <c r="B66" t="str">
+        <v>匠造咖喱 黄金咖喱日式咖喱块香辣 100g</v>
+      </c>
+      <c r="C66" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1809541</v>
+      </c>
+      <c r="B67" t="str">
+        <v>匠造咖喱 金品咖喱日式咖喱块辣味 240g</v>
+      </c>
+      <c r="C67" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1572680</v>
+      </c>
+      <c r="B68" t="str">
+        <v>甘汁园 特浓型姜椒红糖姜汤 240g（20g*12包）</v>
+      </c>
+      <c r="C68" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1809543</v>
+      </c>
+      <c r="B69" t="str">
+        <v>匠造咖喱  金品咖喱日式咖喱块原味 100g</v>
+      </c>
+      <c r="C69" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>3565673</v>
+      </c>
+      <c r="B70" t="str">
+        <v>匠造咖喱 黄金咖喱日式咖喱块中辣 100g</v>
+      </c>
+      <c r="C70" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>2412706</v>
+      </c>
+      <c r="B71" t="str">
+        <v>老才臣 香辣腐乳 295g</v>
+      </c>
+      <c r="C71" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1809540</v>
+      </c>
+      <c r="B72" t="str">
+        <v>匠造咖喱 金品咖喱日式咖喱块中辣 100g</v>
+      </c>
+      <c r="C72" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>2413587</v>
+      </c>
+      <c r="B73" t="str">
+        <v>老才臣 醋 米醋800ml/瓶</v>
+      </c>
+      <c r="C73" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>3965156</v>
+      </c>
+      <c r="B74" t="str">
+        <v>匠造咖喱 黄金咖喱日式咖喱块原味 100g</v>
+      </c>
+      <c r="C74" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2412726</v>
+      </c>
+      <c r="B75" t="str">
+        <v>老才臣 醋 凉拌醋500ml/瓶</v>
+      </c>
+      <c r="C75" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1809542</v>
+      </c>
+      <c r="B76" t="str">
+        <v>匠造咖喱 金品咖喱中辣日式咖喱块 240g</v>
+      </c>
+      <c r="C76" t="str">
+        <v>匠造食品</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>100000799925</v>
+      </c>
+      <c r="B77" t="str">
+        <v>老才臣 老抽酱油 1.9L</v>
+      </c>
+      <c r="C77" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>100000951036</v>
+      </c>
+      <c r="B78" t="str">
+        <v>老才臣 精品白醋  500ml</v>
+      </c>
+      <c r="C78" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>100000799945</v>
+      </c>
+      <c r="B79" t="str">
+        <v>老才臣 京臣料酒1.75L</v>
+      </c>
+      <c r="C79" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>2477608</v>
+      </c>
+      <c r="B80" t="str">
+        <v>老才臣 酱油 一品鲜酱油500ml</v>
+      </c>
+      <c r="C80" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1302758</v>
+      </c>
+      <c r="B81" t="str">
+        <v>老恒和 中华老字号 葱姜料酒 陈年原酿 500ml</v>
+      </c>
+      <c r="C81" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>2413595</v>
+      </c>
+      <c r="B82" t="str">
+        <v>老才臣 调味料酒 500ml</v>
+      </c>
+      <c r="C82" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2412728</v>
+      </c>
+      <c r="B83" t="str">
+        <v>老才臣 姜葱料酒 500ml</v>
+      </c>
+      <c r="C83" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>100000799919</v>
+      </c>
+      <c r="B84" t="str">
+        <v>老才臣 调味料酒 1.9L</v>
+      </c>
+      <c r="C84" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>100000799917</v>
+      </c>
+      <c r="B85" t="str">
+        <v>老才臣  酿造食米醋 1.28L</v>
+      </c>
+      <c r="C85" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>8157610</v>
+      </c>
+      <c r="B86" t="str">
+        <v>老恒和 中华老字号 酿造料酒 三年陈酿 500ml</v>
+      </c>
+      <c r="C86" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1302740</v>
+      </c>
+      <c r="B87" t="str">
+        <v>老恒和 中华老字号 零添加葱姜料酒 500ml</v>
+      </c>
+      <c r="C87" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>4738546</v>
+      </c>
+      <c r="B88" t="str">
+        <v>老恒和 中华老字号 玫瑰米醋 三年陈酿 500ml</v>
+      </c>
+      <c r="C88" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1302763</v>
+      </c>
+      <c r="B89" t="str">
+        <v>老恒和 中华老字号 五香料酒 陈年原酿 500ml</v>
+      </c>
+      <c r="C89" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>100003206457</v>
+      </c>
+      <c r="B90" t="str">
+        <v>甘汁园 黄砂糖包 1kg（5g*200包）</v>
+      </c>
+      <c r="C90" t="str">
+        <v>甘汁园</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>100000799915</v>
+      </c>
+      <c r="B91" t="str">
+        <v>老才臣 生抽酱油 1.9L</v>
+      </c>
+      <c r="C91" t="str">
+        <v>老才臣</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>8369735</v>
+      </c>
+      <c r="B92" t="str">
+        <v>老恒和 中华老字号 手工料酒 五年陈酿 1.9L</v>
+      </c>
+      <c r="C92" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1302748</v>
+      </c>
+      <c r="B93" t="str">
+        <v>老恒和 中华老字号 台湾风味豆腐乳 340g</v>
+      </c>
+      <c r="C93" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>4613246</v>
+      </c>
+      <c r="B94" t="str">
+        <v>老恒和 中华老字号 烹饪黄酒 酿造料酒 500ml</v>
+      </c>
+      <c r="C94" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>4876225</v>
+      </c>
+      <c r="B95" t="str">
+        <v>丘比 焙煎芝麻口味沙拉汁 1.5L</v>
+      </c>
+      <c r="C95" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1303126</v>
+      </c>
+      <c r="B96" t="str">
+        <v>丘比 千岛酱 200g</v>
+      </c>
+      <c r="C96" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>100000390426</v>
+      </c>
+      <c r="B97" t="str">
+        <v>丘比 日式口味沙拉汁 1.5L</v>
+      </c>
+      <c r="C97" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>4876223</v>
+      </c>
+      <c r="B98" t="str">
+        <v>丘比 白桃果酱 170g</v>
+      </c>
+      <c r="C98" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>8369767</v>
+      </c>
+      <c r="B99" t="str">
+        <v>老恒和 中华老字号 特级一品鲜酱油 500ml</v>
+      </c>
+      <c r="C99" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>100003350638</v>
+      </c>
+      <c r="B100" t="str">
+        <v>老恒和 中华老字号 鲜上鲜特级酱油 500ml</v>
+      </c>
+      <c r="C100" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>5255109</v>
+      </c>
+      <c r="B101" t="str">
+        <v>丘比 清柠口味沙拉汁 200ml</v>
+      </c>
+      <c r="C101" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>4876235</v>
+      </c>
+      <c r="B102" t="str">
+        <v>丘比 香甜味沙拉酱 1kg</v>
+      </c>
+      <c r="C102" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>3353034</v>
+      </c>
+      <c r="B103" t="str">
+        <v>丘比 焙煎芝麻口味沙拉汁 340ml</v>
+      </c>
+      <c r="C103" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>838553</v>
+      </c>
+      <c r="B104" t="str">
+        <v>丘比 香甜味沙拉酱 400g</v>
+      </c>
+      <c r="C104" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>838589</v>
+      </c>
+      <c r="B105" t="str">
+        <v>丘比 草莓果酱 170g</v>
+      </c>
+      <c r="C105" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1302761</v>
+      </c>
+      <c r="B106" t="str">
+        <v>老恒和 中华老字号 零添加料酒  500ml</v>
+      </c>
+      <c r="C106" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>8506285</v>
+      </c>
+      <c r="B107" t="str">
+        <v>丘比 果+1蓝莓果酱 240g</v>
+      </c>
+      <c r="C107" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>7630291</v>
+      </c>
+      <c r="B108" t="str">
+        <v>丘比 蒜香口味面包酱 170g</v>
+      </c>
+      <c r="C108" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>100000268679</v>
+      </c>
+      <c r="B109" t="str">
+        <v>万字 纯酿造酱油 200ml</v>
+      </c>
+      <c r="C109" t="str">
+        <v>万字</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>8369871</v>
+      </c>
+      <c r="B110" t="str">
+        <v>老恒和 中华老字号 红腐乳 285g</v>
+      </c>
+      <c r="C110" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1225985</v>
+      </c>
+      <c r="B111" t="str">
+        <v>万字 纯酿造酱油 1.8L</v>
+      </c>
+      <c r="C111" t="str">
+        <v>万字</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>100000490861</v>
+      </c>
+      <c r="B112" t="str">
+        <v>万字 台湾风味甘醇酿造酱油 1L</v>
+      </c>
+      <c r="C112" t="str">
+        <v>万字</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>5404862</v>
+      </c>
+      <c r="B113" t="str">
+        <v>丘比 大拌菜口味沙拉汁 1.5L</v>
+      </c>
+      <c r="C113" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>4410276</v>
+      </c>
+      <c r="B114" t="str">
+        <v>仲景 辣椒油 125ml</v>
+      </c>
+      <c r="C114" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1302762</v>
+      </c>
+      <c r="B115" t="str">
+        <v>老恒和 中华老字号 姜汁蟹醋 五年陈酿 450ml</v>
+      </c>
+      <c r="C115" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>7801384</v>
+      </c>
+      <c r="B116" t="str">
+        <v>永叔公 中华老字号 红油腐乳王  300g</v>
+      </c>
+      <c r="C116" t="str">
+        <v>永叔公</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>4797882</v>
+      </c>
+      <c r="B117" t="str">
+        <v>仲景 香辣味香菇酱 330g</v>
+      </c>
+      <c r="C117" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1225984</v>
+      </c>
+      <c r="B118" t="str">
+        <v>万字 纯酿造酱油 500ml</v>
+      </c>
+      <c r="C118" t="str">
+        <v>万字</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1699211</v>
+      </c>
+      <c r="B119" t="str">
+        <v>永叔公 中华老字号 香辣腐乳  380g</v>
+      </c>
+      <c r="C119" t="str">
+        <v>永叔公</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1225986</v>
+      </c>
+      <c r="B120" t="str">
+        <v>万字 鲜醇酱油 1.8L</v>
+      </c>
+      <c r="C120" t="str">
+        <v>万字</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>858416</v>
+      </c>
+      <c r="B121" t="str">
+        <v>仲景 奥尔良味香菇酱 210g</v>
+      </c>
+      <c r="C121" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>4556629</v>
+      </c>
+      <c r="B122" t="str">
+        <v>老恒和 中华老字号 零添加葱姜料酒 五年陈酿 150ml</v>
+      </c>
+      <c r="C122" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1205753</v>
+      </c>
+      <c r="B123" t="str">
+        <v>万字 鲜醇酱油 500ml</v>
+      </c>
+      <c r="C123" t="str">
+        <v>万字</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>100000483552</v>
+      </c>
+      <c r="B124" t="str">
+        <v>仲景 鲜辣味劲道牛肉酱  210g</v>
+      </c>
+      <c r="C124" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>100000483534</v>
+      </c>
+      <c r="B125" t="str">
+        <v>仲景  五香味劲道牛肉酱 210g</v>
+      </c>
+      <c r="C125" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1809525</v>
+      </c>
+      <c r="B126" t="str">
+        <v>紫林 山西老陈醋6度 500ml</v>
+      </c>
+      <c r="C126" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>858418</v>
+      </c>
+      <c r="B127" t="str">
+        <v>仲景 香菇小酱 210g</v>
+      </c>
+      <c r="C127" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>3708971</v>
+      </c>
+      <c r="B128" t="str">
+        <v>紫林 清香米醋 1.9L</v>
+      </c>
+      <c r="C128" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1644361</v>
+      </c>
+      <c r="B129" t="str">
+        <v>紫林 紫林老陈醋 2.5L</v>
+      </c>
+      <c r="C129" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1644337</v>
+      </c>
+      <c r="B130" t="str">
+        <v>紫林 山西5度老醋 500ml</v>
+      </c>
+      <c r="C130" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1644330</v>
+      </c>
+      <c r="B131" t="str">
+        <v>紫林 山西老陈醋 700ml</v>
+      </c>
+      <c r="C131" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>100004941144</v>
+      </c>
+      <c r="B132" t="str">
+        <v>紫林 3.5度山西陈醋  1.9L</v>
+      </c>
+      <c r="C132" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>1644335</v>
+      </c>
+      <c r="B133" t="str">
+        <v>紫林 9度米醋 500ml</v>
+      </c>
+      <c r="C133" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>4876267</v>
+      </c>
+      <c r="B134" t="str">
+        <v>丘比 沙拉酱 1kg</v>
+      </c>
+      <c r="C134" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>1303111</v>
+      </c>
+      <c r="B135" t="str">
+        <v>丘比 香甜味沙拉酱 200g</v>
+      </c>
+      <c r="C135" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>4613226</v>
+      </c>
+      <c r="B136" t="str">
+        <v>老恒和 中华老字号 原酿料酒 五年陈酿 1.9L</v>
+      </c>
+      <c r="C136" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>858414</v>
+      </c>
+      <c r="B137" t="str">
+        <v>仲景 麻辣味香菇酱 210g</v>
+      </c>
+      <c r="C137" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>8506301</v>
+      </c>
+      <c r="B138" t="str">
+        <v>丘比 果+1草莓果酱240g</v>
+      </c>
+      <c r="C138" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>2047130</v>
+      </c>
+      <c r="B139" t="str">
+        <v>丘比 沙拉酱 150g</v>
+      </c>
+      <c r="C139" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>100001410216</v>
+      </c>
+      <c r="B140" t="str">
+        <v>紫林 5°山西老醋 500ml</v>
+      </c>
+      <c r="C140" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>1302757</v>
+      </c>
+      <c r="B141" t="str">
+        <v>老恒和 中华老字号 浙江黄酒 六年陈酿料酒 500ml</v>
+      </c>
+      <c r="C141" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>838543</v>
+      </c>
+      <c r="B142" t="str">
+        <v>丘比 卡路里减半沙拉酱 200g</v>
+      </c>
+      <c r="C142" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>1644329</v>
+      </c>
+      <c r="B143" t="str">
+        <v>紫林 老陈醋 山西酿造食醋 1.4L</v>
+      </c>
+      <c r="C143" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>4176160</v>
+      </c>
+      <c r="B144" t="str">
+        <v>丘比 杏子果酱 170g</v>
+      </c>
+      <c r="C144" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>1741991</v>
+      </c>
+      <c r="B145" t="str">
+        <v>七色花语 甘牛至叶 10g</v>
+      </c>
+      <c r="C145" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>5767031</v>
+      </c>
+      <c r="B146" t="str">
+        <v>七色花语 咖喱粉 30g</v>
+      </c>
+      <c r="C146" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>3740193</v>
+      </c>
+      <c r="B147" t="str">
+        <v>丘比 草莓果酱 170g</v>
+      </c>
+      <c r="C147" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>1809551</v>
+      </c>
+      <c r="B148" t="str">
+        <v>紫林 山西老陈醋6.5度 500ml</v>
+      </c>
+      <c r="C148" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>100001106029</v>
+      </c>
+      <c r="B149" t="str">
+        <v>仲景 芝麻油 125ml</v>
+      </c>
+      <c r="C149" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>1441044</v>
+      </c>
+      <c r="B150" t="str">
+        <v>老恒和 中华老字号 金辣酱 160g</v>
+      </c>
+      <c r="C150" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>1741984</v>
+      </c>
+      <c r="B151" t="str">
+        <v>七色花语 意大利香草 21g</v>
+      </c>
+      <c r="C151" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>100000428821</v>
+      </c>
+      <c r="B152" t="str">
+        <v>丘比 凯撒沙拉口味沙拉汁 1.5L</v>
+      </c>
+      <c r="C152" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>838573</v>
+      </c>
+      <c r="B153" t="str">
+        <v>丘比 芥末口味沙拉汁 200ml</v>
+      </c>
+      <c r="C153" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>8293660</v>
+      </c>
+      <c r="B154" t="str">
+        <v>丘比 果+1芒果果酱 240g</v>
+      </c>
+      <c r="C154" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>8293644</v>
+      </c>
+      <c r="B155" t="str">
+        <v>丘比 青梅口味沙拉汁 200ml</v>
+      </c>
+      <c r="C155" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>1741980</v>
+      </c>
+      <c r="B156" t="str">
+        <v>七色花语 罗勒Basil 13g</v>
+      </c>
+      <c r="C156" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>8369815</v>
+      </c>
+      <c r="B157" t="str">
+        <v>老恒和 中华老字号 蟹醋 100ml</v>
+      </c>
+      <c r="C157" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>838598</v>
+      </c>
+      <c r="B158" t="str">
+        <v>丘比 草莓果酱 340g</v>
+      </c>
+      <c r="C158" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>2047135</v>
+      </c>
+      <c r="B159" t="str">
+        <v>丘比 香甜味沙拉酱 150g</v>
+      </c>
+      <c r="C159" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>1302737</v>
+      </c>
+      <c r="B160" t="str">
+        <v>老恒和 中华老字号 蟹醋 200ml</v>
+      </c>
+      <c r="C160" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>1741983</v>
+      </c>
+      <c r="B161" t="str">
+        <v>七色花语 迷迭香 25g</v>
+      </c>
+      <c r="C161" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>838592</v>
+      </c>
+      <c r="B162" t="str">
+        <v>丘比 蓝莓果酱 170g</v>
+      </c>
+      <c r="C162" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>100000671607</v>
+      </c>
+      <c r="B163" t="str">
+        <v>老恒和 中华老字号 手工黄酒 三年陈酿料酒 500ml</v>
+      </c>
+      <c r="C163" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>1741972</v>
+      </c>
+      <c r="B164" t="str">
+        <v>七色花语 黑胡椒粉 35g</v>
+      </c>
+      <c r="C164" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>838576</v>
+      </c>
+      <c r="B165" t="str">
+        <v>丘比 凯撒沙拉口味沙拉汁 200ml</v>
+      </c>
+      <c r="C165" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>8506303</v>
+      </c>
+      <c r="B166" t="str">
+        <v>丘比 柚子口味沙拉汁 200ml</v>
+      </c>
+      <c r="C166" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>5255111</v>
+      </c>
+      <c r="B167" t="str">
+        <v>丘比 金枪鱼口味面包酱 170g</v>
+      </c>
+      <c r="C167" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>100003350654</v>
+      </c>
+      <c r="B168" t="str">
+        <v>老恒和 中华老字号 双晒特级酱油  500ml</v>
+      </c>
+      <c r="C168" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>1990525</v>
+      </c>
+      <c r="B169" t="str">
+        <v>仲景 原味香菇酱 210g</v>
+      </c>
+      <c r="C169" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>4521568</v>
+      </c>
+      <c r="B170" t="str">
+        <v>七色花语 披萨草 13g</v>
+      </c>
+      <c r="C170" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>1741998</v>
+      </c>
+      <c r="B171" t="str">
+        <v>七色花语 肉桂粉 45g</v>
+      </c>
+      <c r="C171" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>4176098</v>
+      </c>
+      <c r="B172" t="str">
+        <v>丘比 千岛酱 400g</v>
+      </c>
+      <c r="C172" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>100003350652</v>
+      </c>
+      <c r="B173" t="str">
+        <v>老恒和 中华老字号 双晒一级酱油 500ml</v>
+      </c>
+      <c r="C173" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>1741996</v>
+      </c>
+      <c r="B174" t="str">
+        <v>七色花语 欧芹片 10g</v>
+      </c>
+      <c r="C174" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>838547</v>
+      </c>
+      <c r="B175" t="str">
+        <v>丘比 千岛酱 300g</v>
+      </c>
+      <c r="C175" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>5316790</v>
+      </c>
+      <c r="B176" t="str">
+        <v>丘比 寿司醋 日本料理调味汁200ml</v>
+      </c>
+      <c r="C176" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>100001106223</v>
+      </c>
+      <c r="B177" t="str">
+        <v>紫林 新一代9°米醋  500ml</v>
+      </c>
+      <c r="C177" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>4176118</v>
+      </c>
+      <c r="B178" t="str">
+        <v>丘比 沙拉酱 400g</v>
+      </c>
+      <c r="C178" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>1741977</v>
+      </c>
+      <c r="B179" t="str">
+        <v>七色花语 白芝麻 40g</v>
+      </c>
+      <c r="C179" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>838602</v>
+      </c>
+      <c r="B180" t="str">
+        <v>丘比 苹果果酱 340g</v>
+      </c>
+      <c r="C180" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>8157694</v>
+      </c>
+      <c r="B181" t="str">
+        <v>老恒和 中华老字号 白腐乳 285g</v>
+      </c>
+      <c r="C181" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>838548</v>
+      </c>
+      <c r="B182" t="str">
+        <v>丘比 香甜味沙拉酱 300g</v>
+      </c>
+      <c r="C182" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>1990544</v>
+      </c>
+      <c r="B183" t="str">
+        <v>仲景 香辣味香菇酱 210g</v>
+      </c>
+      <c r="C183" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>838546</v>
+      </c>
+      <c r="B184" t="str">
+        <v>丘比 沙拉酱 300g</v>
+      </c>
+      <c r="C184" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>100003350656</v>
+      </c>
+      <c r="B185" t="str">
+        <v>仲景  香菇辣酱  210g</v>
+      </c>
+      <c r="C185" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>2804705</v>
+      </c>
+      <c r="B186" t="str">
+        <v>紫林 苹果醋 500ml</v>
+      </c>
+      <c r="C186" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>7416290</v>
+      </c>
+      <c r="B187" t="str">
+        <v>丘比 面包酱 意式披萨口味 170g</v>
+      </c>
+      <c r="C187" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>838571</v>
+      </c>
+      <c r="B188" t="str">
+        <v>丘比 焙煎芝麻口味沙拉汁 200ml</v>
+      </c>
+      <c r="C188" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>100003350636</v>
+      </c>
+      <c r="B189" t="str">
+        <v>仲景 北极蓝 野生蓝莓果酱 260g</v>
+      </c>
+      <c r="C189" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>100004941130</v>
+      </c>
+      <c r="B190" t="str">
+        <v>紫林 5度酿造白醋 1.9L</v>
+      </c>
+      <c r="C190" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>1644334</v>
+      </c>
+      <c r="B191" t="str">
+        <v>紫林 陈醋  420ml</v>
+      </c>
+      <c r="C191" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>838600</v>
+      </c>
+      <c r="B192" t="str">
+        <v>丘比 蓝莓果酱 340g</v>
+      </c>
+      <c r="C192" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>4613230</v>
+      </c>
+      <c r="B193" t="str">
+        <v>老恒和 中华老字号 陈年花雕 五年陈酿 500ml</v>
+      </c>
+      <c r="C193" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>3353042</v>
+      </c>
+      <c r="B194" t="str">
+        <v>丘比 大拌菜口味沙拉汁 340ml</v>
+      </c>
+      <c r="C194" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>1741955</v>
+      </c>
+      <c r="B195" t="str">
+        <v>七色花语 孜然粉 35g</v>
+      </c>
+      <c r="C195" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>1184613</v>
+      </c>
+      <c r="B196" t="str">
+        <v>丘比 黑胡椒口味沙拉酱 170g</v>
+      </c>
+      <c r="C196" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>2047126</v>
+      </c>
+      <c r="B197" t="str">
+        <v>丘比 千岛酱 150g</v>
+      </c>
+      <c r="C197" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>1644340</v>
+      </c>
+      <c r="B198" t="str">
+        <v>紫林 山西老陈醋 1L</v>
+      </c>
+      <c r="C198" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>4020855</v>
+      </c>
+      <c r="B199" t="str">
+        <v>老恒和 中华老字号 厨用花雕 陈酿料酒 500ml</v>
+      </c>
+      <c r="C199" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>8015031</v>
+      </c>
+      <c r="B200" t="str">
+        <v>永叔公 中华老字号 麻油白腐乳  300g</v>
+      </c>
+      <c r="C200" t="str">
+        <v>永叔公</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>4797878</v>
+      </c>
+      <c r="B201" t="str">
+        <v>仲景 原味香菇酱 330g</v>
+      </c>
+      <c r="C201" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>1741974</v>
+      </c>
+      <c r="B202" t="str">
+        <v>七色花语 姜黄粉 30g</v>
+      </c>
+      <c r="C202" t="str">
+        <v>七色花语</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>4176162</v>
+      </c>
+      <c r="B203" t="str">
+        <v>丘比 蓝莓果酱 170g</v>
+      </c>
+      <c r="C203" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>7958291</v>
+      </c>
+      <c r="B204" t="str">
+        <v>紫林 厚道醋 山西酿造食醋 2.2L</v>
+      </c>
+      <c r="C204" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>1302743</v>
+      </c>
+      <c r="B205" t="str">
+        <v>老恒和 中华老字号 超特鲜鱼生酱油 200ml</v>
+      </c>
+      <c r="C205" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>1184597</v>
+      </c>
+      <c r="B206" t="str">
+        <v>丘比 大拌菜口味沙拉汁 200ml</v>
+      </c>
+      <c r="C206" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>4410298</v>
+      </c>
+      <c r="B207" t="str">
+        <v>仲景 花椒油 125ml</v>
+      </c>
+      <c r="C207" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>1302741</v>
+      </c>
+      <c r="B208" t="str">
+        <v>老恒和 中华老字号 玫瑰腐乳 285g</v>
+      </c>
+      <c r="C208" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>1303104</v>
+      </c>
+      <c r="B209" t="str">
+        <v>丘比 沙拉酱原味 200g</v>
+      </c>
+      <c r="C209" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>1741907</v>
+      </c>
+      <c r="B210" t="str">
+        <v>丘比 美式甜辣口味沙拉汁 200ml</v>
+      </c>
+      <c r="C210" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>1302734</v>
+      </c>
+      <c r="B211" t="str">
+        <v>老恒和 中华老字号 五年陈酿玫瑰米醋 500ml</v>
+      </c>
+      <c r="C211" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>5404860</v>
+      </c>
+      <c r="B212" t="str">
+        <v>丘比 海鲜沙拉口味沙拉汁 200ml</v>
+      </c>
+      <c r="C212" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>100001106027</v>
+      </c>
+      <c r="B213" t="str">
+        <v>仲景 藤椒油 125ml</v>
+      </c>
+      <c r="C213" t="str">
+        <v>仲景</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>1699199</v>
+      </c>
+      <c r="B214" t="str">
+        <v>永叔公 中华老字号 香辣味茶油腐乳 300g</v>
+      </c>
+      <c r="C214" t="str">
+        <v>永叔公</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>838561</v>
+      </c>
+      <c r="B215" t="str">
+        <v>丘比 日式口味沙拉汁 200ml</v>
+      </c>
+      <c r="C215" t="str">
+        <v>丘比（KEWPIE）</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>100001410214</v>
+      </c>
+      <c r="B216" t="str">
+        <v>紫林 6°山西老陈醋 500ml</v>
+      </c>
+      <c r="C216" t="str">
+        <v>紫林</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>1302725</v>
+      </c>
+      <c r="B217" t="str">
+        <v>老恒和 中华老字号 鲜上鲜特级酱油 1L</v>
+      </c>
+      <c r="C217" t="str">
+        <v>老恒和 始创清光绪·1875</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D217"/>
   </ignoredErrors>
 </worksheet>
 </file>